--- a/data/raw/cornell_raw_2025.xlsx
+++ b/data/raw/cornell_raw_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C602E7E-AC3D-1E45-B985-60A0A920AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E96687-1B0A-E64F-A101-528AD4D4B401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="-26580" windowWidth="27260" windowHeight="16200" xr2:uid="{BDDB2078-E946-2346-AAB6-590CDC7055DF}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,7 +917,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1857,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2092,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>4</v>
